--- a/RubyCode/Transport/GTFS_Map.xlsx
+++ b/RubyCode/Transport/GTFS_Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Agency" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Trips" sheetId="4" r:id="rId4"/>
     <sheet name="Stop_times" sheetId="5" r:id="rId5"/>
     <sheet name="Calendar" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="112">
   <si>
     <t>stop_id</t>
   </si>
@@ -304,13 +305,64 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>get_stop_data_by_route</t>
+  </si>
+  <si>
+    <t>routeID</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>routeDescription</t>
+  </si>
+  <si>
+    <t>Fkey</t>
+  </si>
+  <si>
+    <t>getStopDataByRoute</t>
+  </si>
+  <si>
+    <t>Make up</t>
+  </si>
+  <si>
+    <t>join route_id and direction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>maybe not needed</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,13 +370,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,15 +403,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -361,10 +504,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -695,7 +838,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,6 +1169,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1033,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,6 +1428,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1270,10 +1459,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,6 +1982,11 @@
       </c>
       <c r="E29">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1920,4 +2115,425 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.31944444444444448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.82638888888888884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.88194444444444453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>